--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam2-Itga6.xlsx
@@ -537,7 +537,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06515966666666666</v>
+        <v>0.06515966666666667</v>
       </c>
       <c r="H2">
         <v>0.195479</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N2">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O2">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P2">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q2">
-        <v>8.906573752303776</v>
+        <v>16.61860233342945</v>
       </c>
       <c r="R2">
-        <v>80.15916377073398</v>
+        <v>149.567421000865</v>
       </c>
       <c r="S2">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="T2">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06515966666666666</v>
+        <v>0.06515966666666667</v>
       </c>
       <c r="H3">
         <v>0.195479</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N3">
         <v>2.685736</v>
       </c>
       <c r="O3">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P3">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q3">
-        <v>0.05833388750488888</v>
+        <v>0.0583338875048889</v>
       </c>
       <c r="R3">
-        <v>0.5250049875439999</v>
+        <v>0.5250049875440002</v>
       </c>
       <c r="S3">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="T3">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06515966666666666</v>
+        <v>0.06515966666666667</v>
       </c>
       <c r="H4">
         <v>0.195479</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N4">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O4">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P4">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q4">
-        <v>0.3194987184798889</v>
+        <v>0.4594118353348889</v>
       </c>
       <c r="R4">
-        <v>2.875488466319</v>
+        <v>4.134706518014</v>
       </c>
       <c r="S4">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="T4">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,7 +723,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06515966666666666</v>
+        <v>0.06515966666666667</v>
       </c>
       <c r="H5">
         <v>0.195479</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N5">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O5">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P5">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q5">
-        <v>2.713092875276222</v>
+        <v>2.106666018977111</v>
       </c>
       <c r="R5">
-        <v>24.417835877486</v>
+        <v>18.959994170794</v>
       </c>
       <c r="S5">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="T5">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
     </row>
   </sheetData>
